--- a/src/test/resources/ZacksTest_FileExistWithChange.xlsx
+++ b/src/test/resources/ZacksTest_FileExistWithChange.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10522"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/OneDrive - SAP SE/Code_Personal_On_Git/StockRankingCrawler/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/OneDrive - SAP SE/Code_Personal_On_Git/StockRankingCrawler/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203B35EC-5EB5-914F-B0EF-9B1C6E8AAB9C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6199BBA-F8AE-2548-A3EE-B20C06C70422}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="2018" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -407,7 +407,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
